--- a/class27_api_test_v5/data/cases.xlsx
+++ b/class27_api_test_v5/data/cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lili/PycharmProjects/python29/class27_api_test_v5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC9EE59-AFC3-7E49-8ADD-CC1AFED8EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929782EC-3F21-A94A-AA68-FA47748EF0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="936" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="936" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="261">
   <si>
     <t>case_id</t>
   </si>
@@ -511,314 +511,321 @@
     <t>加标失败—借款人id不是当前登录用户</t>
   </si>
   <si>
+    <t>加标失败—借款金额为负数</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"借款金额范围错误"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款金额为小数</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type": "lemonban.v2", "Authorization": "#admin_token#"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","status":2}</t>
+  </si>
+  <si>
+    <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
+  </si>
+  <si>
+    <t>审核不通过</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not": False}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","status":5}</t>
+  </si>
+  <si>
+    <t>项目不待审核状态</t>
+  </si>
+  <si>
+    <t>{"loan_id":#pass_loan_id#,"approved_or_not": False}</t>
+  </si>
+  <si>
+    <t>{"code": 2,"msg": "项目不在审核中状态"}</t>
+  </si>
+  <si>
+    <t>参数approved_or_not为空</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#}</t>
+  </si>
+  <si>
+    <t>{ "code": 1,"msg": "approved_or_not为空"}</t>
+  </si>
+  <si>
+    <t>项目id为空</t>
+  </si>
+  <si>
+    <t>{"approved_or_not": True}</t>
+  </si>
+  <si>
+    <t>{ "code": 1,"msg": "项目id为空"}</t>
+  </si>
+  <si>
+    <t>项目id不存在</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#+10000,"approved_or_not": True}</t>
+  </si>
+  <si>
+    <t>{"code": 2, "msg": "项目不存在"}</t>
+  </si>
+  <si>
+    <t>借款人正常登录</t>
+  </si>
+  <si>
+    <t>/member/login</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
+  </si>
+  <si>
+    <t>借款人加标</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":400,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>管理员正常登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
+  </si>
+  <si>
+    <t>管理员审核</t>
+  </si>
+  <si>
+    <t>投资人正常登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#invest_phone#","pwd":"#invest_pwd#"}</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount":490000}</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>投资人正常投资</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>投资人id为空</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>标id为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"项目id为空"}</t>
+  </si>
+  <si>
+    <t>投资金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#, "loan_id":#loan_id#}</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>正常修改昵称—用户名长度10位</t>
+  </si>
+  <si>
+    <t>/member/update</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"reg_name": "木森666"}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': 'OK'}</t>
+  </si>
+  <si>
+    <t>用户id为空</t>
+  </si>
+  <si>
+    <t>{"reg_name": "木森666"}</t>
+  </si>
+  <si>
+    <t>{'code': 1, 'msg': '用户id为空'}</t>
+  </si>
+  <si>
+    <t>修改的用户名为空</t>
+  </si>
+  <si>
+    <t>{'code': 1, 'msg': '用户名为空'}</t>
+  </si>
+  <si>
+    <t>用户名长度11位</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"reg_name":"木森123456789"}</t>
+  </si>
+  <si>
+    <t>{'code': 2, 'msg': '用户昵称长度超过10位'}</t>
+  </si>
+  <si>
+    <t>用户id非数字类型</t>
+  </si>
+  <si>
+    <t>{"member_id":'#member_id#',"reg_name": "木森667"}</t>
+  </si>
+  <si>
+    <t>{'code': 2, 'msg': '参数类型错误'}</t>
+  </si>
+  <si>
+    <t>loans</t>
+  </si>
+  <si>
+    <t>获取成功:不填参数</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/loans</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': 'OK',"len":10}</t>
+  </si>
+  <si>
+    <t>获取成功:只填页面参数</t>
+  </si>
+  <si>
+    <t>{"pageIndex":1}</t>
+  </si>
+  <si>
+    <t>获取成功:只填页面内容数</t>
+  </si>
+  <si>
+    <t>{"pageSize":20}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': 'OK',"len":20}</t>
+  </si>
+  <si>
+    <t>获取成功:都填参数</t>
+  </si>
+  <si>
+    <t>{"pageIndex":1,"pageSize":20}</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>正常获取用户信息</t>
+  </si>
+  <si>
+    <t>/member/#member_id#/info</t>
+  </si>
+  <si>
+    <t>不存在的用户id</t>
+  </si>
+  <si>
+    <t>/member/#member_id#100009/info</t>
+  </si>
+  <si>
+    <t>{"code": 2,"msg": "用户不存在"}</t>
+  </si>
+  <si>
+    <t>管理员注册</t>
+  </si>
+  <si>
+    <t>/member/register</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#mobilephone#","pwd":"12345678","type":0,"reg_name":"34254sdfs"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#mobilephone#","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>管理员加标</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":40000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#mobilephone#","pwd":"12345678","type":1,"reg_name":"34254sdfs"}</t>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+  </si>
+  <si>
+    <t>更改昵称</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "reg_name": "小柠檬666"}</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount":20000}</t>
+  </si>
+  <si>
+    <t>取现</t>
+  </si>
+  <si>
+    <t>获取项目列表</t>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>{"member_id":#member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>加标失败—借款金额为负数</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"借款金额范围错误"}</t>
-  </si>
-  <si>
-    <t>加标失败—借款金额为小数</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>audit</t>
-  </si>
-  <si>
-    <t>审核通过</t>
-  </si>
-  <si>
-    <t>patch</t>
-  </si>
-  <si>
-    <t>/loan/audit</t>
-  </si>
-  <si>
-    <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
-  </si>
-  <si>
-    <t>{"X-Lemonban-Media-Type": "lemonban.v2", "Authorization": "#admin_token#"}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"OK","status":2}</t>
-  </si>
-  <si>
-    <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
-  </si>
-  <si>
-    <t>审核不通过</t>
-  </si>
-  <si>
-    <t>{"loan_id":#loan_id#,"approved_or_not": False}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"OK","status":5}</t>
-  </si>
-  <si>
-    <t>项目不待审核状态</t>
-  </si>
-  <si>
-    <t>{"loan_id":#pass_loan_id#,"approved_or_not": False}</t>
-  </si>
-  <si>
-    <t>{"code": 2,"msg": "项目不在审核中状态"}</t>
-  </si>
-  <si>
-    <t>参数approved_or_not为空</t>
-  </si>
-  <si>
-    <t>{"loan_id":#loan_id#}</t>
-  </si>
-  <si>
-    <t>{ "code": 1,"msg": "approved_or_not为空"}</t>
-  </si>
-  <si>
-    <t>项目id为空</t>
-  </si>
-  <si>
-    <t>{"approved_or_not": True}</t>
-  </si>
-  <si>
-    <t>{ "code": 1,"msg": "项目id为空"}</t>
-  </si>
-  <si>
-    <t>项目id不存在</t>
-  </si>
-  <si>
-    <t>{"loan_id":#loan_id#+10000,"approved_or_not": True}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "项目不存在"}</t>
-  </si>
-  <si>
-    <t>借款人正常登录</t>
-  </si>
-  <si>
-    <t>/member/login</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
-  </si>
-  <si>
-    <t>借款人加标</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":400,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>管理员正常登录</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
-  </si>
-  <si>
-    <t>管理员审核</t>
-  </si>
-  <si>
-    <t>投资人正常登录</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#invest_phone#","pwd":"#invest_pwd#"}</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount":490000}</t>
-  </si>
-  <si>
-    <t>invest</t>
-  </si>
-  <si>
-    <t>投资人正常投资</t>
-  </si>
-  <si>
-    <t>/member/invest</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
-  </si>
-  <si>
-    <t>投资人id为空</t>
-  </si>
-  <si>
-    <t>{"loan_id":#loan_id#,"amount":300}</t>
-  </si>
-  <si>
-    <t>标id为空</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"amount":300}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"项目id为空"}</t>
-  </si>
-  <si>
-    <t>投资金额为空</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#, "loan_id":#loan_id#}</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>正常修改昵称—用户名长度10位</t>
-  </si>
-  <si>
-    <t>/member/update</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"reg_name": "木森666"}</t>
-  </si>
-  <si>
-    <t>{'code': 0, 'msg': 'OK'}</t>
-  </si>
-  <si>
-    <t>用户id为空</t>
-  </si>
-  <si>
-    <t>{"reg_name": "木森666"}</t>
-  </si>
-  <si>
-    <t>{'code': 1, 'msg': '用户id为空'}</t>
-  </si>
-  <si>
-    <t>修改的用户名为空</t>
-  </si>
-  <si>
-    <t>{'code': 1, 'msg': '用户名为空'}</t>
-  </si>
-  <si>
-    <t>用户名长度11位</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"reg_name":"木森123456789"}</t>
-  </si>
-  <si>
-    <t>{'code': 2, 'msg': '用户昵称长度超过10位'}</t>
-  </si>
-  <si>
-    <t>用户id非数字类型</t>
-  </si>
-  <si>
-    <t>{"member_id":'#member_id#',"reg_name": "木森667"}</t>
-  </si>
-  <si>
-    <t>{'code': 2, 'msg': '参数类型错误'}</t>
-  </si>
-  <si>
-    <t>loans</t>
-  </si>
-  <si>
-    <t>获取成功:不填参数</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>/loans</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>{'code': 0, 'msg': 'OK',"len":10}</t>
-  </si>
-  <si>
-    <t>获取成功:只填页面参数</t>
-  </si>
-  <si>
-    <t>{"pageIndex":1}</t>
-  </si>
-  <si>
-    <t>获取成功:只填页面内容数</t>
-  </si>
-  <si>
-    <t>{"pageSize":20}</t>
-  </si>
-  <si>
-    <t>{'code': 0, 'msg': 'OK',"len":20}</t>
-  </si>
-  <si>
-    <t>获取成功:都填参数</t>
-  </si>
-  <si>
-    <t>{"pageIndex":1,"pageSize":20}</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>正常获取用户信息</t>
-  </si>
-  <si>
-    <t>/member/#member_id#/info</t>
-  </si>
-  <si>
-    <t>不存在的用户id</t>
-  </si>
-  <si>
-    <t>/member/#member_id#100009/info</t>
-  </si>
-  <si>
-    <t>{"code": 2,"msg": "用户不存在"}</t>
-  </si>
-  <si>
-    <t>管理员注册</t>
-  </si>
-  <si>
-    <t>/member/register</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#mobilephone#","pwd":"12345678","type":0,"reg_name":"34254sdfs"}</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#mobilephone#","pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>管理员加标</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":40000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>用户注册</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#mobilephone#","pwd":"12345678","type":1,"reg_name":"34254sdfs"}</t>
-  </si>
-  <si>
-    <t>获取用户信息</t>
-  </si>
-  <si>
-    <t>更改昵称</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#, "reg_name": "小柠檬666"}</t>
-  </si>
-  <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount":20000}</t>
-  </si>
-  <si>
-    <t>取现</t>
-  </si>
-  <si>
-    <t>获取项目列表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,6 +894,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -950,7 +972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -985,6 +1007,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1264,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1274,9 +1300,9 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1707,20 +1733,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1731,20 +1757,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1814,16 +1840,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -1840,16 +1866,16 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -1867,7 +1893,7 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
@@ -1876,7 +1902,7 @@
         <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
@@ -1891,19 +1917,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
         <v>165</v>
       </c>
-      <c r="C5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" t="s">
-        <v>168</v>
-      </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -1921,16 +1947,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1948,16 +1974,16 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
@@ -1972,19 +1998,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -1999,19 +2025,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
@@ -2029,7 +2055,7 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
@@ -2038,7 +2064,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
@@ -2053,19 +2079,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" t="s">
         <v>199</v>
-      </c>
-      <c r="C11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" t="s">
-        <v>202</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
@@ -2083,7 +2109,7 @@
         <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -2107,19 +2133,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" t="s">
         <v>226</v>
       </c>
-      <c r="C13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" t="s">
-        <v>229</v>
-      </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G13" t="s">
         <v>49</v>
@@ -2368,7 +2394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2419,19 +2445,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>78</v>
@@ -2448,19 +2474,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>78</v>
@@ -2477,25 +2503,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -2506,19 +2532,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>78</v>
@@ -2541,7 +2567,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2608,8 +2634,8 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>57</v>
+      <c r="I2" s="19" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1">
@@ -3611,15 +3637,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="D5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="93.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="113.1640625" customWidth="1"/>
     <col min="7" max="7" width="82.83203125" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" customWidth="1"/>
@@ -3909,8 +3935,8 @@
       <c r="E10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>159</v>
+      <c r="F10" s="20" t="s">
+        <v>260</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>78</v>
@@ -3930,7 +3956,7 @@
         <v>133</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>53</v>
@@ -3938,14 +3964,14 @@
       <c r="E11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>161</v>
+      <c r="F11" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -3959,7 +3985,7 @@
         <v>133</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>53</v>
@@ -3967,14 +3993,14 @@
       <c r="E12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>164</v>
+      <c r="F12" s="20" t="s">
+        <v>259</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -3990,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4000,7 +4026,7 @@
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="6" width="65.33203125" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.1640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
@@ -4042,31 +4068,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>169</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.5" customHeight="1">
@@ -4074,31 +4100,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1">
@@ -4106,25 +4132,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -4135,25 +4161,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -4164,25 +4190,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -4193,25 +4219,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -4282,16 +4308,16 @@
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -4308,7 +4334,7 @@
         <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>53</v>
@@ -4317,7 +4343,7 @@
         <v>135</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -4334,16 +4360,16 @@
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
@@ -4357,19 +4383,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -4386,16 +4412,16 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -4421,7 +4447,7 @@
         <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
@@ -4435,19 +4461,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -4461,19 +4487,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="G9" t="s">
         <v>114</v>
@@ -4487,22 +4513,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -4513,19 +4539,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G11" t="s">
         <v>128</v>
@@ -4588,22 +4614,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
         <v>211</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" t="s">
-        <v>214</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4614,22 +4640,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4640,22 +4666,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
@@ -4666,22 +4692,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
@@ -4692,22 +4718,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
@@ -4767,22 +4793,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="E2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4793,22 +4819,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="E3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4819,22 +4845,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" t="s">
-        <v>229</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4845,22 +4871,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" t="s">
-        <v>229</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
